--- a/space/project/導入案件管理_機能一覧.xlsx
+++ b/space/project/導入案件管理_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A701A67-5F22-D146-BE3F-6B3BFC8BE30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292F0504-C0FC-974A-8C76-23DDF7C6C4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -99,6 +99,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>common_function.jsに詳細記入</t>
+    <rPh sb="19" eb="23">
+      <t>ショウサイキンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>導入案件管理</t>
     <rPh sb="0" eb="2">
       <t>ドオニュウ</t>
@@ -122,6 +129,84 @@
     <t>プロセス以降時</t>
     <rPh sb="4" eb="7">
       <t>イコウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求書発行日（sys_invoiceDate）に対応したレポートが一時確認以上の場合規定の処理</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>k</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>project_adp.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス以降時　入力確認中</t>
+    <rPh sb="4" eb="7">
+      <t>イコウズ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス以降時　納品準備中</t>
+    <rPh sb="4" eb="7">
+      <t>イコウズ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ノウヒn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出荷管理に情報連携（更新）</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウシュッカ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出荷管理に情報連携（新規レコード作成）</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウシュッカ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>（）</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -673,7 +758,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -694,7 +779,7 @@
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="14">
@@ -738,39 +823,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20">
+    <row r="5" spans="1:8" ht="40">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20">
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="20">
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>

--- a/space/project/導入案件管理_機能一覧.xlsx
+++ b/space/project/導入案件管理_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292F0504-C0FC-974A-8C76-23DDF7C6C4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A413A-EC18-1743-90C7-1D4E8CFFC444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -99,6 +99,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>在庫処理</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次レポート処理</t>
+    <rPh sb="0" eb="2">
+      <t>ゲテゥ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>common_function.jsに詳細記入</t>
     <rPh sb="19" eb="23">
       <t>ショウサイキンイ</t>
@@ -207,6 +227,54 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス以降時　完了　提供形態が販売、サブスク</t>
+    <rPh sb="4" eb="7">
+      <t>イコウズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>テイキョウケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時</t>
+  </si>
+  <si>
+    <t>請求月が現在より過去の場合アラートを表示</t>
+    <rPh sb="0" eb="1">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カコノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求日に対応したレポートが締切の場合エラー</t>
+    <rPh sb="0" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シメキリノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -755,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -779,7 +847,7 @@
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="14">
@@ -828,18 +896,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20">
@@ -847,13 +915,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -864,64 +932,100 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="20">
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" ht="14">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:8" ht="14">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:8" ht="14">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" ht="14">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="H8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20">
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20">
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="20">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="14">
       <c r="A13"/>
@@ -1138,69 +1242,6 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="14">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" ht="14">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="14">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" ht="14">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" ht="14">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="14">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" ht="14">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>

--- a/space/project/導入案件管理_機能一覧.xlsx
+++ b/space/project/導入案件管理_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A413A-EC18-1743-90C7-1D4E8CFFC444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31F13B-5F4D-0D4C-B7FD-9AF8D5FED445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="3" r:id="rId1"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>

--- a/space/project/導入案件管理_機能一覧.xlsx
+++ b/space/project/導入案件管理_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31F13B-5F4D-0D4C-B7FD-9AF8D5FED445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E974B4-1D9E-BA48-8A22-5A1D0B30134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
